--- a/PLC_Project_doc.xlsx
+++ b/PLC_Project_doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prolite\Plc_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB27BBD-2537-426C-A258-8F55FB04C50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CD2B7A-B599-4A04-926D-D6C1B5D0370C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="14520" windowHeight="15585" xr2:uid="{108641F5-C1E5-4A46-9180-5665E03D45B2}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{108641F5-C1E5-4A46-9180-5665E03D45B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t xml:space="preserve">Function name </t>
   </si>
@@ -60,9 +60,6 @@
     <t>Main</t>
   </si>
   <si>
-    <t>readPlcData</t>
-  </si>
-  <si>
     <t>df, plcConn</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>if plcReadComplete=true</t>
   </si>
   <si>
-    <t>if connStatus=True &amp; timer Status=True</t>
-  </si>
-  <si>
     <t>Set</t>
   </si>
   <si>
@@ -129,25 +123,109 @@
     <t>openWindow</t>
   </si>
   <si>
-    <t>OnBtnClick - checks the macid and data of the software</t>
-  </si>
-  <si>
     <t>authentication</t>
   </si>
   <si>
     <t xml:space="preserve">restriction </t>
   </si>
   <si>
-    <t xml:space="preserve">Checks macid </t>
-  </si>
-  <si>
     <t>local_A</t>
   </si>
   <si>
     <t>dateExp</t>
   </si>
   <si>
-    <t xml:space="preserve">Checks  Exp date </t>
+    <t>open_excel_file</t>
+  </si>
+  <si>
+    <t>Init</t>
+  </si>
+  <si>
+    <t>Ui welcome window call</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> checks the macid and data of the software and UI  main window</t>
+  </si>
+  <si>
+    <t>Check the mac id of the pc</t>
+  </si>
+  <si>
+    <t>checks the exp data of the software</t>
+  </si>
+  <si>
+    <t>show_data</t>
+  </si>
+  <si>
+    <t>to show the particular data of PLC in DB by selecting the date and time</t>
+  </si>
+  <si>
+    <t>export_data</t>
+  </si>
+  <si>
+    <t>To export the selected data on show_data fun as excel</t>
+  </si>
+  <si>
+    <t>opens the excel file and assign as df For fetch data from plc</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>software_type</t>
+  </si>
+  <si>
+    <t>software_type, sold_date</t>
+  </si>
+  <si>
+    <t>dbConnect</t>
+  </si>
+  <si>
+    <t>run_logging</t>
+  </si>
+  <si>
+    <t>On plcConnect Fun</t>
+  </si>
+  <si>
+    <t>On run_logging fun</t>
+  </si>
+  <si>
+    <t>OnBtnClick, if connStatus=True &amp; timer Status=True</t>
+  </si>
+  <si>
+    <t>read_and_insert</t>
+  </si>
+  <si>
+    <t>self, db_number, start_offset, data_type, bit_offset, name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reads the data from Plc and inserting in sql DB  </t>
+  </si>
+  <si>
+    <t>dfplc</t>
+  </si>
+  <si>
+    <t>On open_excel_file Fun and restriction</t>
+  </si>
+  <si>
+    <t>Checks  Exp date On dbConnect Fun</t>
+  </si>
+  <si>
+    <t>Checks macid OnBtnClick On dbConnect Fun</t>
+  </si>
+  <si>
+    <t>insert_data_into_mysql</t>
+  </si>
+  <si>
+    <t>On On open_excel_file Fun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inserts the data to sql table from df </t>
+  </si>
+  <si>
+    <t>defines the df as per the software type from the sql</t>
   </si>
 </sst>
 </file>
@@ -191,9 +269,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FB130C-8540-4297-9A7E-18328B9788DF}">
-  <dimension ref="B2:J19"/>
+  <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,18 +598,19 @@
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="64.85546875" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" customWidth="1"/>
     <col min="6" max="6" width="38.28515625" customWidth="1"/>
     <col min="7" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -546,169 +626,372 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="J23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="G38" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" t="s">
         <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>